--- a/data/taxon genera files/U genera reduced.xlsx
+++ b/data/taxon genera files/U genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="292">
   <si>
     <t>&lt;Modern plant genus to which the following fossil pollen species have been assigned.&gt;</t>
   </si>
@@ -4124,6 +4124,79 @@
         <family val="2"/>
       </rPr>
       <t>Wicander 1974; p. 34.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Umbelliferoipollenites nogradensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Nagy 1985</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Umbonatisporites regidesetosus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Kedo) Byvscheva &amp; Streel, in Avchimovitch et al., 1988</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Umiaspora granulosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Pal, Ghosh &amp; Sannigrahi 1997</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Uvaesporites scythicus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Semenova 1970</t>
     </r>
   </si>
 </sst>
@@ -4283,7 +4356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4327,6 +4400,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4636,10 +4716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M290"/>
+  <dimension ref="A1:M294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5156,27 +5236,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E87" s="2" t="s">
+    <row r="87" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E87" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E88" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A88"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
     </row>
     <row r="89" spans="1:13" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89"/>
@@ -5184,7 +5252,7 @@
       <c r="C89" s="11"/>
       <c r="D89" s="12"/>
       <c r="E89" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="14"/>
@@ -5195,1083 +5263,1133 @@
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
     </row>
-    <row r="90" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E90" s="2" t="s">
+    <row r="90" spans="1:13" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A90"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F90" s="13"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+    </row>
+    <row r="91" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E91" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B91" s="5" t="s">
+    <row r="92" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E92" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E93" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E94" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B94" s="5" t="s">
+    <row r="95" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E96" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B96" s="5" t="s">
+    <row r="97" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E98" s="4" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E98" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E99" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E100" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E101" s="2" t="s">
+    <row r="102" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E102" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E103" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E102" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B103" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E103" s="2"/>
     </row>
     <row r="104" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E104" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E106" s="2" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E108" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D108" s="6" t="s">
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D110" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E109" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B110" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E111" s="2" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E113" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E113" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E114" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E114" s="2"/>
     </row>
     <row r="115" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E115" s="1" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B116" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="117" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E117" s="1" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E118" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="E118" s="1"/>
     </row>
     <row r="119" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E119" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E120" s="2" t="s">
-        <v>41</v>
+      <c r="E119" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E120" s="17" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="121" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B121" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E122" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E123" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E122" s="4" t="s">
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E125" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E123" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E124" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E125" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E126" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E127" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E128" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E129" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E127" s="2" t="s">
+    <row r="130" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E130" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E128" s="2" t="s">
+    <row r="131" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E131" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E129" s="2" t="s">
+    <row r="132" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E132" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B130" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E131" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E132" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E134" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E135" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C134" s="7" t="s">
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C137" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E135" s="4" t="s">
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E138" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="1:13" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A136"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="18" t="s">
+    <row r="139" spans="1:13" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A139"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="F136" s="13"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="16"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="16"/>
-      <c r="L136" s="16"/>
-      <c r="M136" s="16"/>
-    </row>
-    <row r="137" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E137" s="1" t="s">
+      <c r="F139" s="13"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="16"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="16"/>
+    </row>
+    <row r="140" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E140" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E138" s="1" t="s">
+    <row r="141" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E141" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E139" s="1" t="s">
+    <row r="142" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E142" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E140" s="2" t="s">
+    <row r="143" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E143" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E141" s="20" t="s">
+    <row r="144" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E144" s="20" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E142" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E143" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E144" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="145" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E145" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E146" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E147" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E148" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="146" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E146" s="2" t="s">
+    <row r="149" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E149" s="2" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="147" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E147" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="148" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E148" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="149" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E149" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="150" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E150" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E151" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E152" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E153" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="151" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E151" s="2" t="s">
+    <row r="154" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E154" s="2" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="152" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E152" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="153" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E153" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="154" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E154" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="155" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E155" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E156" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E157" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E158" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="156" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E156" s="2" t="s">
+    <row r="159" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E159" s="2" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="157" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E157" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="158" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E158" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="159" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E159" s="3" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="160" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E160" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="161" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E161" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="162" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E162" s="2" t="s">
-        <v>62</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E161" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E162" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E163" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="164" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E164" s="3" t="s">
-        <v>268</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E164" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E165" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="166" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E166" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="167" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E167" s="2" t="s">
-        <v>269</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E167" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E168" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E169" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="170" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E170" s="2" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E171" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E172" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="173" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E173" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="174" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E174" s="2" t="s">
-        <v>270</v>
+        <v>69</v>
       </c>
     </row>
     <row r="175" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E175" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="176" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E176" s="2" t="s">
-        <v>259</v>
+        <v>71</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E177" s="20" t="s">
-        <v>260</v>
+      <c r="E177" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E178" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E179" s="2" t="s">
-        <v>74</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E180" s="2" t="s">
-        <v>75</v>
+      <c r="E180" s="20" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E181" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E182" s="2" t="s">
-        <v>271</v>
+        <v>74</v>
       </c>
     </row>
     <row r="183" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E183" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E184" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E185" s="3" t="s">
-        <v>272</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E185" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="186" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E186" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E187" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E188" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E189" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B187" s="5" t="s">
+    <row r="190" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E188" s="1" t="s">
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E191" s="1" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B189" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E189" s="1"/>
-    </row>
-    <row r="190" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E190" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E191" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="192" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B192" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E192" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="E192" s="1"/>
     </row>
     <row r="193" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E193" s="1" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E194" s="2" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
     </row>
     <row r="195" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B195" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E196" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E197" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E199" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E197" s="1" t="s">
+    <row r="200" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E200" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E198" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E199" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E200" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="201" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E201" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E202" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="203" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E203" s="2" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
     </row>
     <row r="204" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E204" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="205" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E205" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E206" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="207" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B207" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E207" s="2"/>
+      <c r="E207" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="208" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E208" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E209" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B210" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E211" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="209" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E209" s="1" t="s">
+    <row r="212" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E212" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E210" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E211" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E212" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="213" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E213" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="214" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E214" s="2" t="s">
-        <v>224</v>
+      <c r="E214" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="215" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E215" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E216" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E217" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E218" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="216" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B216" s="5" t="s">
+    <row r="219" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B219" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E217" s="1" t="s">
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E220" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="218" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B218" s="5" t="s">
+    <row r="221" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E218" s="1"/>
-    </row>
-    <row r="219" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E219" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B220" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E220" s="2"/>
-    </row>
-    <row r="221" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E221" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="E221" s="1"/>
     </row>
     <row r="222" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E222" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="223" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B223" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E224" s="2" t="s">
-        <v>102</v>
+      <c r="E224" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E225" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E226" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="B226" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E226" s="2"/>
     </row>
     <row r="227" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E227" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="228" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B228" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E228" s="2"/>
+      <c r="E228" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="229" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E229" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="230" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B230" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E230" s="2"/>
+      <c r="E230" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="231" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E231" s="2" t="s">
-        <v>226</v>
-      </c>
+      <c r="B231" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E231" s="2"/>
     </row>
     <row r="232" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E232" s="2" t="s">
-        <v>227</v>
+        <v>106</v>
       </c>
     </row>
     <row r="233" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B233" s="5" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E234" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E235" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B236" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E237" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="235" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B235" s="5" t="s">
+    <row r="238" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B238" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E235" s="2"/>
-    </row>
-    <row r="236" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E236" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B237" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E237" s="1"/>
-    </row>
-    <row r="238" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E238" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="E238" s="2"/>
     </row>
     <row r="239" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E239" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B240" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E240" s="1"/>
+    </row>
+    <row r="241" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E241" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E242" s="1" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="240" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E240" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="241" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E241" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="242" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E242" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="243" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E243" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="244" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E244" s="2" t="s">
-        <v>112</v>
+      <c r="E244" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="245" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B245" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E245" s="1"/>
+      <c r="E245" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="246" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E246" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E247" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B248" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E248" s="1"/>
+    </row>
+    <row r="249" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E249" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="247" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B247" s="5" t="s">
+    <row r="250" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B250" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E248" s="1" t="s">
+      <c r="E250" s="2"/>
+    </row>
+    <row r="251" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E251" s="1" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="249" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B249" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E249" s="1"/>
-    </row>
-    <row r="250" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D250" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E250" s="1"/>
-    </row>
-    <row r="251" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E251" s="18" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="252" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B252" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E252" s="1"/>
+    </row>
+    <row r="253" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D253" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E253" s="1"/>
+    </row>
+    <row r="254" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E254" s="18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B255" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E252" s="1"/>
-    </row>
-    <row r="253" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E253" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="254" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B254" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E254" s="2"/>
-    </row>
-    <row r="255" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E255" s="2" t="s">
-        <v>217</v>
-      </c>
+      <c r="E255" s="1"/>
     </row>
     <row r="256" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E256" s="2" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
     </row>
     <row r="257" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B257" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E258" s="2" t="s">
-        <v>114</v>
+        <v>217</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E259" s="2" t="s">
-        <v>219</v>
+        <v>113</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B260" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E260" s="2"/>
+    </row>
+    <row r="261" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E261" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E262" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B263" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E261" s="1" t="s">
+      <c r="E263" s="2"/>
+    </row>
+    <row r="264" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E264" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E262" s="1" t="s">
+    <row r="265" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E265" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E263" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A264"/>
-      <c r="B264" s="10"/>
-      <c r="C264" s="11"/>
-      <c r="D264" s="12"/>
-      <c r="E264" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F264" s="13"/>
-      <c r="G264" s="14"/>
-      <c r="H264" s="15"/>
-      <c r="I264" s="16"/>
-      <c r="J264" s="16"/>
-      <c r="K264" s="16"/>
-      <c r="L264" s="16"/>
-      <c r="M264" s="16"/>
-    </row>
-    <row r="265" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E265" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="266" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E266" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E267" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A268"/>
-      <c r="B268" s="10"/>
-      <c r="C268" s="11"/>
-      <c r="D268" s="12"/>
-      <c r="E268" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="F268" s="13"/>
-      <c r="G268" s="14"/>
-      <c r="H268" s="15"/>
-      <c r="I268" s="16"/>
-      <c r="J268" s="16"/>
-      <c r="K268" s="16"/>
-      <c r="L268" s="16"/>
-      <c r="M268" s="16"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A267"/>
+      <c r="B267" s="10"/>
+      <c r="C267" s="11"/>
+      <c r="D267" s="12"/>
+      <c r="E267" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F267" s="13"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="15"/>
+      <c r="I267" s="16"/>
+      <c r="J267" s="16"/>
+      <c r="K267" s="16"/>
+      <c r="L267" s="16"/>
+      <c r="M267" s="16"/>
+    </row>
+    <row r="268" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E268" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="269" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E269" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E270" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A271"/>
+      <c r="B271" s="10"/>
+      <c r="C271" s="11"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F271" s="13"/>
+      <c r="G271" s="14"/>
+      <c r="H271" s="15"/>
+      <c r="I271" s="16"/>
+      <c r="J271" s="16"/>
+      <c r="K271" s="16"/>
+      <c r="L271" s="16"/>
+      <c r="M271" s="16"/>
+    </row>
+    <row r="272" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E272" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E270" s="1" t="s">
+    <row r="273" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E273" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E271" s="3" t="s">
+    <row r="274" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E274" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E272" s="2" t="s">
+    <row r="275" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E275" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="273" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E273" s="2" t="s">
+    <row r="276" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E276" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="274" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E274" s="2" t="s">
+    <row r="277" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E277" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="275" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E275" s="2" t="s">
+    <row r="278" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E278" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="276" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E276" s="2" t="s">
+    <row r="279" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E279" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="277" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E277" s="2" t="s">
+    <row r="280" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E280" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="278" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E278" s="1" t="s">
+    <row r="281" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E281" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="279" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E279" s="2" t="s">
+    <row r="282" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E282" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E280" s="2" t="s">
+    <row r="283" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E283" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E281" s="3" t="s">
+    <row r="284" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A284"/>
+      <c r="B284" s="10"/>
+      <c r="C284" s="11"/>
+      <c r="E284" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="F284" s="13"/>
+      <c r="G284" s="14"/>
+      <c r="H284" s="15"/>
+    </row>
+    <row r="285" spans="1:13" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A285" s="3"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="7"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="282" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E282" s="2" t="s">
+      <c r="F285" s="3"/>
+      <c r="G285" s="3"/>
+      <c r="H285" s="3"/>
+      <c r="I285" s="16"/>
+      <c r="J285" s="16"/>
+      <c r="K285" s="16"/>
+      <c r="L285" s="16"/>
+      <c r="M285" s="16"/>
+    </row>
+    <row r="286" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E286" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="283" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E283" s="2" t="s">
+    <row r="287" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E287" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E284" s="1" t="s">
+    <row r="288" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E288" s="1" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="285" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B285" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E285" s="1"/>
-    </row>
-    <row r="286" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E286" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E287" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="288" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E288" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="289" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B289" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E289" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="E289" s="1"/>
     </row>
     <row r="290" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E290" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E291" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E292" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B293" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E293" s="2"/>
+    </row>
+    <row r="294" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E294" s="1" t="s">
         <v>151</v>
       </c>
     </row>
